--- a/Individual Assignments/Nyhof Emma/week-08/week-08 tables.xlsx
+++ b/Individual Assignments/Nyhof Emma/week-08/week-08 tables.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecn20.la\Desktop\School\Research_Design_Implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CE270B-3882-482B-A621-5F1E7481F393}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3889C7FF-4E25-47ED-B639-F44FCB216EFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8460" xr2:uid="{F04BFC5C-348F-494F-A1A2-2DAF273BC90A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8460" activeTab="3" xr2:uid="{F04BFC5C-348F-494F-A1A2-2DAF273BC90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Part 1" sheetId="1" r:id="rId1"/>
     <sheet name="Part 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Comparison" sheetId="3" r:id="rId3"/>
+    <sheet name="Rep Comparison" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="17">
   <si>
     <t>Standard deviation</t>
   </si>
@@ -59,6 +61,24 @@
   </si>
   <si>
     <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sample Size</t>
+  </si>
+  <si>
+    <t>Fixed Population</t>
+  </si>
+  <si>
+    <t>Infinite Superpopulation</t>
+  </si>
+  <si>
+    <t>100 Repetitions</t>
+  </si>
+  <si>
+    <t>1000 Repetitions</t>
+  </si>
+  <si>
+    <t>500 Repetitions</t>
   </si>
 </sst>
 </file>
@@ -108,13 +128,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -127,6 +150,12 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3308D14-B927-4966-9EF9-C87179B58279}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,209 +484,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="6">
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="6">
         <v>10</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C2" s="6">
         <v>100</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D2" s="6">
         <v>1000</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E2" s="6">
         <v>10000</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B4" s="3">
         <v>0.1929786</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C4" s="3">
         <v>4.8614400000000002E-2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D4" s="3">
         <v>1.55338E-2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E4" s="3">
         <v>2.29228E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>6.9982439999999997</v>
-      </c>
-      <c r="C5" s="3">
-        <v>6.999657</v>
-      </c>
-      <c r="D5" s="3">
-        <v>6.9993410000000003</v>
-      </c>
-      <c r="E5" s="3">
-        <v>7.0005480000000002</v>
-      </c>
-      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
-        <v>4.2700000000000004E-9</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6.9982439999999997</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6.999657</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6.9993410000000003</v>
+      </c>
+      <c r="E6" s="3">
+        <v>7.0005480000000002</v>
       </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4.2700000000000004E-9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B8" s="3">
         <v>0.17823420000000001</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="3">
         <v>5.1056400000000002E-2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="3">
         <v>1.6009800000000001E-2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="3">
         <v>5.0523E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B9" s="3">
         <v>6.5872349999999997</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C9" s="3">
         <v>6.8983369999999997</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D9" s="3">
         <v>6.967924</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E9" s="3">
         <v>6.9906439999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B10" s="3">
         <v>7.4092529999999996</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="3">
         <v>7.1009770000000003</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="3">
         <v>7.0307579999999996</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="3">
         <v>7.0104509999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1.3673820000000001</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.2484875</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.1025124</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.51689390000000002</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3.03E-7</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.3673820000000001</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.2484875</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.1025124</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.51689390000000002</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3.03E-7</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B14" s="3">
         <v>0.42772539999999998</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C14" s="3">
         <v>3.2369000000000002E-2</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D14" s="3">
         <v>3.1197999999999998E-3</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="3">
         <v>5.1625999999999998E-3</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -667,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04EB151-23D9-4A1F-A84B-5EF2D1E0DA7E}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A28" activeCellId="5" sqref="A4:H4 A11:H11 A16:H16 A21:H21 A25:H25 A28:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,19 +717,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
@@ -726,19 +766,19 @@
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>0.37580950000000002</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>6.9906490000000003</v>
       </c>
       <c r="D4">
         <v>3.3609999999999998E-3</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>0.32477319999999998</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>3.9645000000000001</v>
       </c>
       <c r="G4">
@@ -752,19 +792,19 @@
       <c r="A5">
         <v>8</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <v>0.2128515</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>7.005655</v>
       </c>
       <c r="D5" s="1">
         <v>3.0499999999999999E-7</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>0.1967681</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>1.4770369999999999</v>
       </c>
       <c r="G5">
@@ -778,19 +818,19 @@
       <c r="A6">
         <v>10</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>0.1760264</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>7.0082550000000001</v>
       </c>
       <c r="D6" s="1">
         <v>3.8499999999999997E-9</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>0.17541370000000001</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>1.1540010000000001</v>
       </c>
       <c r="G6" s="1">
@@ -804,19 +844,19 @@
       <c r="A7">
         <v>16</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>0.1328223</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>7.0033260000000004</v>
       </c>
       <c r="D7" s="1">
         <v>8.4499999999999997E-15</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>0.13746659999999999</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <v>0.84728859999999995</v>
       </c>
       <c r="G7" s="1">
@@ -830,19 +870,19 @@
       <c r="A8">
         <v>32</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="8">
         <v>9.5589999999999994E-2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>7.0007510000000002</v>
       </c>
       <c r="D8" s="1">
         <v>1.6999999999999999E-32</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>9.06526E-2</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <v>0.6120563</v>
       </c>
       <c r="G8" s="1">
@@ -856,19 +896,19 @@
       <c r="A9">
         <v>64</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="8">
         <v>6.2501000000000001E-2</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>6.9983050000000002</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="8">
         <v>6.3779000000000002E-2</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <v>0.42111680000000001</v>
       </c>
       <c r="G9">
@@ -882,19 +922,19 @@
       <c r="A10">
         <v>100</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>5.1209499999999998E-2</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <v>7.0010199999999996</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="8">
         <v>5.0296399999999998E-2</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="8">
         <v>0.33007999999999998</v>
       </c>
       <c r="G10">
@@ -908,19 +948,19 @@
       <c r="A11">
         <v>128</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>4.6480199999999999E-2</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>7.0018250000000002</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="8">
         <v>4.4993999999999999E-2</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="8">
         <v>0.28142260000000002</v>
       </c>
       <c r="G11">
@@ -934,19 +974,19 @@
       <c r="A12">
         <v>256</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>3.17548E-2</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <v>7.0004499999999998</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="8">
         <v>3.1371299999999998E-2</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="8">
         <v>0.2041907</v>
       </c>
       <c r="G12">
@@ -960,19 +1000,19 @@
       <c r="A13">
         <v>512</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>2.4006E-2</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>7.0000720000000003</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="8">
         <v>2.2142700000000001E-2</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="8">
         <v>0.1433268</v>
       </c>
       <c r="G13">
@@ -986,19 +1026,19 @@
       <c r="A14">
         <v>1000</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="8">
         <v>1.6163199999999999E-2</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <v>7.0009940000000004</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="8">
         <v>1.5834000000000001E-2</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="8">
         <v>8.8877700000000004E-2</v>
       </c>
       <c r="G14">
@@ -1012,19 +1052,19 @@
       <c r="A15">
         <v>1024</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="8">
         <v>1.6173400000000001E-2</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="8">
         <v>6.9993559999999997</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="8">
         <v>1.5610499999999999E-2</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="8">
         <v>9.8579899999999998E-2</v>
       </c>
       <c r="G15">
@@ -1038,19 +1078,19 @@
       <c r="A16">
         <v>2048</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="8">
         <v>1.10651E-2</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <v>6.9998880000000003</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="8">
         <v>1.10619E-2</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="8">
         <v>7.2513099999999997E-2</v>
       </c>
       <c r="G16">
@@ -1064,19 +1104,19 @@
       <c r="A17">
         <v>4096</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="8">
         <v>7.9416999999999995E-3</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="8">
         <v>6.9999140000000004</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="8">
         <v>7.8134999999999993E-3</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="8">
         <v>4.5582299999999999E-2</v>
       </c>
       <c r="G17">
@@ -1090,19 +1130,19 @@
       <c r="A18">
         <v>8192</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="8">
         <v>5.4787000000000004E-3</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="8">
         <v>7.0000859999999996</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="8">
         <v>5.5244999999999999E-3</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="8">
         <v>3.6616299999999997E-2</v>
       </c>
       <c r="G18">
@@ -1116,19 +1156,19 @@
       <c r="A19">
         <v>10000</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="8">
         <v>4.9458000000000002E-3</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="8">
         <v>7.0003950000000001</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="8">
         <v>5.0033999999999999E-3</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="8">
         <v>3.2247499999999998E-2</v>
       </c>
       <c r="G19">
@@ -1142,19 +1182,19 @@
       <c r="A20">
         <v>16384</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="8">
         <v>3.8154999999999999E-3</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="8">
         <v>7.0000910000000003</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="8">
         <v>3.9050000000000001E-3</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="8">
         <v>2.6085400000000002E-2</v>
       </c>
       <c r="G20">
@@ -1168,19 +1208,19 @@
       <c r="A21">
         <v>32768</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="8">
         <v>2.6928999999999998E-3</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="8">
         <v>7.0000530000000003</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="8">
         <v>2.7613999999999998E-3</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="8">
         <v>1.6075099999999998E-2</v>
       </c>
       <c r="G21">
@@ -1194,19 +1234,19 @@
       <c r="A22">
         <v>65536</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="8">
         <v>1.9407000000000001E-3</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="8">
         <v>6.9998969999999998</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="8">
         <v>1.9536000000000002E-3</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="8">
         <v>1.2034400000000001E-2</v>
       </c>
       <c r="G22">
@@ -1220,19 +1260,19 @@
       <c r="A23">
         <v>100000</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="8">
         <v>1.6496E-3</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="8">
         <v>7.0000939999999998</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="8">
         <v>1.5812000000000001E-3</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="8">
         <v>9.4976000000000001E-3</v>
       </c>
       <c r="G23">
@@ -1246,19 +1286,19 @@
       <c r="A24">
         <v>131072</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="8">
         <v>1.4085E-3</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="8">
         <v>7.0000910000000003</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="8">
         <v>1.3810000000000001E-3</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="8">
         <v>7.6245999999999996E-3</v>
       </c>
       <c r="G24">
@@ -1272,19 +1312,19 @@
       <c r="A25">
         <v>524288</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="8">
         <v>6.7500000000000004E-4</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="8">
         <v>6.9999799999999999</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="8">
         <v>6.9059999999999998E-4</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="8">
         <v>4.1326999999999996E-3</v>
       </c>
       <c r="G25">
@@ -1298,19 +1338,19 @@
       <c r="A26">
         <v>1000000</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="8">
         <v>4.9850000000000003E-4</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="8">
         <v>6.9999560000000001</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="8">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="8">
         <v>3.0527000000000002E-3</v>
       </c>
       <c r="G26">
@@ -1324,19 +1364,19 @@
       <c r="A27">
         <v>1048576</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="8">
         <v>4.8069999999999997E-4</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="8">
         <v>7.000013</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="8">
         <v>4.883E-4</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="8">
         <v>3.0842E-3</v>
       </c>
       <c r="G27">
@@ -1350,19 +1390,19 @@
       <c r="A28">
         <v>2097152</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="8">
         <v>3.6640000000000002E-4</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="8">
         <v>6.999987</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="8">
         <v>3.4529999999999999E-4</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="8">
         <v>2.2154000000000002E-3</v>
       </c>
       <c r="G28">
@@ -1380,4 +1420,1036 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C068B3B-F03E-4967-90E2-69C0D6C49A03}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="G1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="6">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6">
+        <v>100</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H3" s="13">
+        <v>10</v>
+      </c>
+      <c r="I3" s="13">
+        <v>100</v>
+      </c>
+      <c r="J3" s="13">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1929786</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.8614400000000002E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.55338E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.29228E-2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.1760264</v>
+      </c>
+      <c r="I5" s="3">
+        <v>5.1209499999999998E-2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1.6163199999999999E-2</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4.9458000000000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6.9982439999999997</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6.999657</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6.9993410000000003</v>
+      </c>
+      <c r="E7" s="3">
+        <v>7.0005480000000002</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>7.0082550000000001</v>
+      </c>
+      <c r="I7" s="3">
+        <v>7.0010199999999996</v>
+      </c>
+      <c r="J7" s="3">
+        <v>7.0009940000000004</v>
+      </c>
+      <c r="K7" s="3">
+        <v>7.0003950000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4.2700000000000004E-9</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3.8499999999999997E-9</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.17823420000000001</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5.1056400000000002E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.6009800000000001E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.0523E-3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.17541370000000001</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5.0296399999999998E-2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1.5834000000000001E-2</v>
+      </c>
+      <c r="K9" s="3">
+        <v>5.0033999999999999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.3673820000000001</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.2484875</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1025124</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.51689390000000002</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1.1540010000000001</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.33007999999999998</v>
+      </c>
+      <c r="J11" s="3">
+        <v>8.8877700000000004E-2</v>
+      </c>
+      <c r="K11" s="3">
+        <v>3.2247499999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.03E-7</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2.91E-7</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.42772539999999998</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3.2369000000000002E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3.1197999999999998E-3</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5.1625999999999998E-3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.37817200000000001</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3.3135299999999999E-2</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2.9959000000000001E-3</v>
+      </c>
+      <c r="K13" s="3">
+        <v>3.2650000000000002E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F92FE8-9B86-465C-856F-7A1EE8D5E7A0}">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.33013150000000002</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6.9262170000000003</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.5649000000000002E-3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.31340760000000001</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2.2570890000000001</v>
+      </c>
+      <c r="G5" s="3">
+        <v>9.3867099999999995E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1.99116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>128</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5.02487E-2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7.0012540000000003</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.5245500000000001E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.23786589999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1.8361599999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2048</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.0417600000000001E-2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6.9998250000000004</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.10794E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5.47495E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1.3315E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>32768</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2.8958999999999999E-3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7.0002459999999997</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2.7618E-3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.42179E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>9.59E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>524288</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7.2139999999999997E-4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6.9999130000000003</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6.9059999999999998E-4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3.6483000000000002E-3</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4.7299999999999996E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2097152</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3.6660000000000002E-4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6.9999859999999998</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3.4529999999999999E-4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1.8496999999999999E-3</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.46E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.37580950000000002</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6.9906490000000003</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3.3609999999999998E-3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.32477319999999998</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3.9645000000000001</v>
+      </c>
+      <c r="G16" s="3">
+        <v>9.3867099999999995E-2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1.99116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>128</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4.6480199999999999E-2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>7.0018250000000002</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4.4993999999999999E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.28142260000000002</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1.9898599999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2048</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1.10651E-2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6.9998880000000003</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1.10619E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>7.2513099999999997E-2</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1.4061E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>32768</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2.6928999999999998E-3</v>
+      </c>
+      <c r="C19" s="3">
+        <v>7.0000530000000003</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.7613999999999998E-3</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.6075099999999998E-2</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1.156E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>524288</v>
+      </c>
+      <c r="B20" s="3">
+        <v>6.7500000000000004E-4</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6.9999799999999999</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6.9059999999999998E-4</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4.1326999999999996E-3</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5.1000000000000003E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2097152</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3.6640000000000002E-4</v>
+      </c>
+      <c r="C21" s="3">
+        <v>6.999987</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3.4529999999999999E-4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2.2154000000000002E-3</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1.5600000000000001E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.4083079</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6.9990880000000004</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4.5275999999999997E-3</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.3481165</v>
+      </c>
+      <c r="F28" s="3">
+        <v>4.9820799999999998</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.2018131</v>
+      </c>
+      <c r="H28" s="3">
+        <v>3.320821</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>128</v>
+      </c>
+      <c r="B29" s="3">
+        <v>4.6192400000000002E-2</v>
+      </c>
+      <c r="C29" s="3">
+        <v>7.0002839999999997</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>4.4918300000000001E-2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.30538850000000001</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>2.1599400000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2048</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1.12277E-2</v>
+      </c>
+      <c r="C30" s="3">
+        <v>7.0001870000000004</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1.1063099999999999E-2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>7.2635199999999997E-2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1.5042E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>32768</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2.7192000000000002E-3</v>
+      </c>
+      <c r="C31" s="3">
+        <v>7.0000010000000001</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2.7620000000000001E-3</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1.7284899999999999E-2</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1.156E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>524288</v>
+      </c>
+      <c r="B32" s="3">
+        <v>6.8400000000000004E-4</v>
+      </c>
+      <c r="C32" s="3">
+        <v>6.9999950000000002</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>6.9059999999999998E-4</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4.1326999999999996E-3</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>5.6999999999999996E-6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2097152</v>
+      </c>
+      <c r="B33" s="3">
+        <v>3.6279999999999998E-4</v>
+      </c>
+      <c r="C33" s="3">
+        <v>6.9999960000000003</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3.4529999999999999E-4</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2.2154000000000002E-3</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1.6199999999999999E-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A24:H24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>